--- a/weekly records/Meeting minutes.xlsx
+++ b/weekly records/Meeting minutes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI group\cs7is2-project\weekly records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5182FC-8762-4D36-A3E9-6B745DAB8473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ADCFAF-0E7B-4311-8FC9-8218A495D510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>24/04/2021 15:03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>MEETING DURATION (min)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -149,10 +145,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>research on Q-learning</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>task division for codes and report</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -186,6 +178,14 @@
   </si>
   <si>
     <t>Topic/Progress</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>research on Q-learning and Genetic algorithms</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>24/04/2021 11:03</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>19</v>
@@ -665,7 +665,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -691,7 +691,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>3</v>
@@ -717,7 +717,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>3</v>
@@ -743,7 +743,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>3</v>
@@ -769,7 +769,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>3</v>
@@ -795,7 +795,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>3</v>
@@ -821,7 +821,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>3</v>
@@ -847,7 +847,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>3</v>
@@ -873,7 +873,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>3</v>
@@ -899,7 +899,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>3</v>
@@ -925,7 +925,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>3</v>
@@ -951,7 +951,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>3</v>
@@ -977,7 +977,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>3</v>
@@ -1003,7 +1003,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>3</v>
@@ -1029,7 +1029,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>3</v>
@@ -1055,7 +1055,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>3</v>
@@ -1081,7 +1081,7 @@
         <v>60</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>3</v>
@@ -1107,7 +1107,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>3</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B20" s="8">
         <v>60</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>3</v>
